--- a/results/mp/logistic/corona/confidence/126/0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,73 +40,64 @@
     <t>name</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
@@ -118,295 +109,280 @@
     <t>oil</t>
   </si>
   <si>
-    <t>from</t>
+    <t>co</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>prices</t>
+    <t>on</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>:</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>in</t>
-  </si>
-  <si>
-    <t>at</t>
   </si>
   <si>
     <t>is</t>
@@ -767,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,10 +751,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -836,13 +812,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7671232876712328</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C3">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -854,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -886,13 +862,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -904,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -928,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -936,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -954,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -978,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -986,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6756756756756757</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -1004,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1028,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1036,13 +1012,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1054,31 +1030,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.8828828828828829</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1086,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1104,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.8839285714285714</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1128,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1136,13 +1112,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6052631578947368</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1154,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.8787878787878788</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1178,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1186,13 +1162,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1204,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1228,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1236,7 +1212,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5384615384615384</v>
+        <v>0.4375</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -1254,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.8666666666666667</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1278,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1286,7 +1262,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5333333333333333</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C12">
         <v>16</v>
@@ -1304,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.8421052631578947</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1328,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1336,13 +1312,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.52</v>
+        <v>0.4321705426356589</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1354,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>0.839622641509434</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L13">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1378,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1386,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4457364341085271</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C14">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="D14">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1404,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.8333333333333334</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1428,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1436,13 +1412,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4313725490196079</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1454,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.8198433420365535</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L15">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="M15">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1478,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1486,13 +1462,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4285714285714285</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C16">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1504,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.8103448275862069</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1528,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1536,13 +1512,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4266666666666667</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1554,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.8055555555555556</v>
+        <v>0.8125</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1578,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1586,13 +1562,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.423728813559322</v>
+        <v>0.302013422818792</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1604,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>0.7890625</v>
+        <v>0.8125</v>
       </c>
       <c r="L18">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1628,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1636,13 +1612,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3454545454545455</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1654,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.7887323943661971</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L19">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1678,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1686,13 +1662,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3392857142857143</v>
+        <v>0.28</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1704,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.7875</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1728,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1736,13 +1712,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3333333333333333</v>
+        <v>0.2055555555555555</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1754,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>26</v>
+        <v>286</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.7804878048780488</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1778,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1786,13 +1762,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.302013422818792</v>
+        <v>0.175</v>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1804,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.7727272727272727</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1828,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1836,13 +1812,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2555555555555555</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C23">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1854,19 +1830,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.7659574468085106</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1878,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1886,13 +1862,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2545454545454545</v>
+        <v>0.07774798927613941</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1904,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1928,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1936,13 +1912,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1954,19 +1930,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1978,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1986,37 +1962,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1468253968253968</v>
+        <v>0.01841680129240711</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>215</v>
+        <v>3038</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>0.7435897435897436</v>
+        <v>0.7421875</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2028,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2036,37 +2012,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1021505376344086</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E27">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="F27">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>334</v>
+        <v>1135</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.7428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2078,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2086,37 +2062,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04666666666666667</v>
+        <v>0.01693320790216369</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>286</v>
+        <v>2090</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>0.7209302325581395</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2128,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2136,13 +2112,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02431118314424635</v>
+        <v>0.01357082273112807</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E29">
         <v>0.4</v>
@@ -2154,19 +2130,19 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>602</v>
+        <v>2326</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K29">
-        <v>0.68</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2178,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2186,37 +2162,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01988155668358714</v>
+        <v>0.01330967169476486</v>
       </c>
       <c r="C30">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>0.24</v>
+        <v>0.46</v>
       </c>
       <c r="F30">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2317</v>
+        <v>1112</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K30">
-        <v>0.6785714285714286</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2228,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2236,37 +2212,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01943634596695821</v>
+        <v>0.01007446342531756</v>
       </c>
       <c r="C31">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="E31">
-        <v>0.25</v>
+        <v>0.53</v>
       </c>
       <c r="F31">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>3027</v>
+        <v>2260</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K31">
-        <v>0.6666666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2278,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2286,37 +2262,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01728608470181504</v>
+        <v>0.00866482867270579</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="E32">
-        <v>0.17</v>
+        <v>0.66</v>
       </c>
       <c r="F32">
-        <v>0.83</v>
+        <v>0.34</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1137</v>
+        <v>5034</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2328,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2336,37 +2312,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01718213058419244</v>
+        <v>0.007921998781230956</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="E33">
-        <v>0.38</v>
+        <v>0.65</v>
       </c>
       <c r="F33">
-        <v>0.62</v>
+        <v>0.35</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>858</v>
+        <v>4884</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K33">
-        <v>0.6363636363636364</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2378,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2386,37 +2362,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01500789889415482</v>
+        <v>0.007657945118059987</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E34">
-        <v>0.55</v>
+        <v>0.74</v>
       </c>
       <c r="F34">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1247</v>
+        <v>3110</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K34">
-        <v>0.6147058823529412</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L34">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2428,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2436,37 +2412,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.01491228070175439</v>
+        <v>0.007219375873311598</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E35">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="F35">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>2246</v>
+        <v>4263</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K35">
-        <v>0.6071428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2478,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2486,37 +2462,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01224105461393597</v>
+        <v>0.006123230003827019</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E36">
-        <v>0.42</v>
+        <v>0.79</v>
       </c>
       <c r="F36">
-        <v>0.5800000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2098</v>
+        <v>2597</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K36">
-        <v>0.6060606060606061</v>
+        <v>0.65</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2528,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2536,337 +2512,193 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.01152482269503546</v>
+        <v>0.005860192549183759</v>
       </c>
       <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>0.8</v>
+      </c>
+      <c r="F37">
+        <v>0.2</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2375</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L37">
+        <v>57</v>
+      </c>
+      <c r="M37">
+        <v>57</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="L38">
+        <v>20</v>
+      </c>
+      <c r="M38">
+        <v>20</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>13</v>
       </c>
-      <c r="D37">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>0.48</v>
-      </c>
-      <c r="F37">
-        <v>0.52</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1115</v>
-      </c>
-      <c r="J37" s="1" t="s">
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39">
+        <v>0.6</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>24</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40">
+        <v>0.5952380952380952</v>
+      </c>
+      <c r="L40">
+        <v>175</v>
+      </c>
+      <c r="M40">
+        <v>176</v>
+      </c>
+      <c r="N40">
+        <v>0.99</v>
+      </c>
+      <c r="O40">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K41">
+        <v>0.5899581589958159</v>
+      </c>
+      <c r="L41">
+        <v>141</v>
+      </c>
+      <c r="M41">
+        <v>141</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K42">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L42">
+        <v>41</v>
+      </c>
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K37">
-        <v>0.5952380952380952</v>
-      </c>
-      <c r="L37">
-        <v>175</v>
-      </c>
-      <c r="M37">
-        <v>176</v>
-      </c>
-      <c r="N37">
-        <v>0.99</v>
-      </c>
-      <c r="O37">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.01021611001964636</v>
-      </c>
-      <c r="C38">
-        <v>52</v>
-      </c>
-      <c r="D38">
-        <v>127</v>
-      </c>
-      <c r="E38">
-        <v>0.59</v>
-      </c>
-      <c r="F38">
-        <v>0.41</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>5038</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K38">
-        <v>0.5857740585774058</v>
-      </c>
-      <c r="L38">
-        <v>140</v>
-      </c>
-      <c r="M38">
-        <v>140</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.008779264214046822</v>
-      </c>
-      <c r="C39">
-        <v>21</v>
-      </c>
-      <c r="D39">
-        <v>74</v>
-      </c>
-      <c r="E39">
-        <v>0.72</v>
-      </c>
-      <c r="F39">
-        <v>0.28</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>2371</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K39">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L39">
-        <v>14</v>
-      </c>
-      <c r="M39">
-        <v>14</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.008574150523975865</v>
-      </c>
-      <c r="C40">
-        <v>27</v>
-      </c>
-      <c r="D40">
-        <v>79</v>
-      </c>
-      <c r="E40">
-        <v>0.66</v>
-      </c>
-      <c r="F40">
-        <v>0.34</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>3122</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K40">
-        <v>0.574468085106383</v>
-      </c>
-      <c r="L40">
-        <v>54</v>
-      </c>
-      <c r="M40">
-        <v>54</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.0075046904315197</v>
-      </c>
-      <c r="C41">
-        <v>32</v>
-      </c>
-      <c r="D41">
-        <v>96</v>
-      </c>
-      <c r="E41">
-        <v>0.67</v>
-      </c>
-      <c r="F41">
-        <v>0.33</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>4232</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K41">
-        <v>0.5730337078651685</v>
-      </c>
-      <c r="L41">
-        <v>51</v>
-      </c>
-      <c r="M41">
-        <v>51</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.007293666026871401</v>
-      </c>
-      <c r="C42">
-        <v>19</v>
-      </c>
-      <c r="D42">
-        <v>87</v>
-      </c>
-      <c r="E42">
-        <v>0.78</v>
-      </c>
-      <c r="F42">
-        <v>0.22</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>2586</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K42">
+      <c r="K43">
         <v>0.5714285714285714</v>
       </c>
-      <c r="L42">
-        <v>40</v>
-      </c>
-      <c r="M42">
-        <v>40</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.007129761662253004</v>
-      </c>
-      <c r="C43">
-        <v>35</v>
-      </c>
-      <c r="D43">
-        <v>122</v>
-      </c>
-      <c r="E43">
-        <v>0.71</v>
-      </c>
-      <c r="F43">
-        <v>0.29</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>4874</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43">
-        <v>0.5652173913043478</v>
-      </c>
       <c r="L43">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2878,21 +2710,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K44">
-        <v>0.55</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2904,21 +2736,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K45">
-        <v>0.5185185185185185</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2930,21 +2762,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K46">
-        <v>0.5076923076923077</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L46">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M46">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2956,21 +2788,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K47">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2982,21 +2814,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K48">
-        <v>0.4516129032258064</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3008,21 +2840,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K49">
-        <v>0.4313725490196079</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3034,47 +2866,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K50">
-        <v>0.410958904109589</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L50">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K51">
-        <v>0.4</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3086,21 +2918,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K52">
-        <v>0.3823529411764706</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3112,12 +2944,12 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K53">
         <v>0.3717948717948718</v>
@@ -3143,16 +2975,16 @@
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K54">
-        <v>0.3389830508474576</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3164,21 +2996,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K55">
-        <v>0.3114754098360656</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3190,21 +3022,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K56">
-        <v>0.2807017543859649</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3216,21 +3048,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K57">
-        <v>0.25</v>
+        <v>0.28125</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3242,15 +3074,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K58">
-        <v>0.2083333333333333</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L58">
         <v>15</v>
@@ -3268,99 +3100,99 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K59">
-        <v>0.1857142857142857</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K60">
+        <v>0.1370967741935484</v>
+      </c>
+      <c r="L60">
+        <v>17</v>
+      </c>
+      <c r="M60">
+        <v>17</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>107</v>
-      </c>
-      <c r="K60">
-        <v>0.1192660550458716</v>
-      </c>
-      <c r="L60">
-        <v>13</v>
-      </c>
-      <c r="M60">
-        <v>13</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>96</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K61">
-        <v>0.1129032258064516</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="L61">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>110</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K62">
-        <v>0.1048951048951049</v>
+        <v>0.0979020979020979</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3372,21 +3204,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K63">
-        <v>0.1046511627906977</v>
+        <v>0.05850091407678245</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3398,47 +3230,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>154</v>
+        <v>515</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K64">
-        <v>0.08024691358024691</v>
+        <v>0.04924874791318865</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="N64">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>149</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K65">
-        <v>0.07027027027027027</v>
+        <v>0.0430622009569378</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3450,787 +3282,709 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>172</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K66">
-        <v>0.06493506493506493</v>
+        <v>0.03353658536585366</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>288</v>
+        <v>951</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K67">
-        <v>0.05128205128205128</v>
+        <v>0.03132530120481928</v>
       </c>
       <c r="L67">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M67">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>518</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K68">
-        <v>0.04844290657439446</v>
+        <v>0.02946593001841621</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>275</v>
+        <v>527</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K69">
-        <v>0.04578313253012048</v>
+        <v>0.02408477842003854</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N69">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="O69">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>396</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K70">
-        <v>0.04578313253012048</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N70">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="O70">
-        <v>0.05000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>396</v>
+        <v>588</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>0.04096989966555184</v>
+        <v>0.0230357877416701</v>
       </c>
       <c r="L71">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M71">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="N71">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="O71">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1147</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K72">
-        <v>0.03350253807106599</v>
+        <v>0.02275600505689001</v>
       </c>
       <c r="L72">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M72">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N72">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="O72">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>952</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>0.03161397670549085</v>
+        <v>0.02258185923974407</v>
       </c>
       <c r="L73">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M73">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="N73">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="O73">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>582</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K74">
-        <v>0.02767527675276753</v>
+        <v>0.02125279642058166</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N74">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>527</v>
+        <v>875</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K75">
-        <v>0.02562170308967596</v>
+        <v>0.02108907774630154</v>
       </c>
       <c r="L75">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M75">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N75">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="O75">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>2586</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K76">
-        <v>0.02552719200887902</v>
+        <v>0.02</v>
       </c>
       <c r="L76">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K77">
-        <v>0.02506265664160401</v>
+        <v>0.01879699248120301</v>
       </c>
       <c r="L77">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M77">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N77">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="O77">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K78">
-        <v>0.02206809583858764</v>
+        <v>0.01830985915492958</v>
       </c>
       <c r="L78">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M78">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N78">
-        <v>0.8100000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="O78">
-        <v>0.1899999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>1551</v>
+        <v>697</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="K79">
-        <v>0.02186468646864687</v>
+        <v>0.01798279906176701</v>
       </c>
       <c r="L79">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M79">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="N79">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="O79">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>2371</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K80">
-        <v>0.02015503875968992</v>
+        <v>0.01706036745406824</v>
       </c>
       <c r="L80">
         <v>13</v>
       </c>
       <c r="M80">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N80">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="O80">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>632</v>
+        <v>749</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="K81">
-        <v>0.01969823973176865</v>
+        <v>0.01698886936145284</v>
       </c>
       <c r="L81">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="M81">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="N81">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="O81">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>2339</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K82">
-        <v>0.0196078431372549</v>
+        <v>0.01559251559251559</v>
       </c>
       <c r="L82">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M82">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N82">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="O82">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>700</v>
+        <v>947</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K83">
-        <v>0.01828681424446583</v>
+        <v>0.01506906655504395</v>
       </c>
       <c r="L83">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M83">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N83">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O83">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>1020</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="K84">
-        <v>0.01811023622047244</v>
+        <v>0.01489117983963345</v>
       </c>
       <c r="L84">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M84">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N84">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="O84">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>1247</v>
+        <v>860</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K85">
-        <v>0.01753678693811732</v>
+        <v>0.01472664918297357</v>
       </c>
       <c r="L85">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="M85">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="N85">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="O85">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>4874</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K86">
-        <v>0.0167675826734979</v>
+        <v>0.01304145319049837</v>
       </c>
       <c r="L86">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M86">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N86">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="O86">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>2111</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="K87">
-        <v>0.01638311279143037</v>
+        <v>0.01180811808118081</v>
       </c>
       <c r="L87">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M87">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="N87">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="O87">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>3122</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="K88">
-        <v>0.01605504587155963</v>
+        <v>0.01155555555555556</v>
       </c>
       <c r="L88">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M88">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N88">
-        <v>0.7</v>
+        <v>0.46</v>
       </c>
       <c r="O88">
-        <v>0.3</v>
+        <v>0.54</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>858</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K89">
-        <v>0.0148975791433892</v>
+        <v>0.01137357830271216</v>
       </c>
       <c r="L89">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="M89">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="N89">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="O89">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>4232</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K90">
-        <v>0.01466849207901428</v>
+        <v>0.008947592671495527</v>
       </c>
       <c r="L90">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="M90">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="N90">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="O90">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>5038</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K91">
-        <v>0.01274725274725275</v>
+        <v>0.008068343616516375</v>
       </c>
       <c r="L91">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M91">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N91">
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
       <c r="O91">
-        <v>0.54</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>2246</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="K92">
-        <v>0.009608277900960829</v>
+        <v>0.007912497090993717</v>
       </c>
       <c r="L92">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M92">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="N92">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="O92">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
-      <c r="J93" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K93">
-        <v>0.008974964572508267</v>
-      </c>
-      <c r="L93">
-        <v>19</v>
-      </c>
-      <c r="M93">
-        <v>45</v>
-      </c>
-      <c r="N93">
-        <v>0.42</v>
-      </c>
-      <c r="O93">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="P93" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="94" spans="10:17">
-      <c r="J94" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K94">
-        <v>0.006563833278634723</v>
-      </c>
-      <c r="L94">
-        <v>20</v>
-      </c>
-      <c r="M94">
-        <v>80</v>
-      </c>
-      <c r="N94">
-        <v>0.25</v>
-      </c>
-      <c r="O94">
-        <v>0.75</v>
-      </c>
-      <c r="P94" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q94">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="95" spans="10:17">
-      <c r="J95" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K95">
-        <v>0.006432246998284734</v>
-      </c>
-      <c r="L95">
-        <v>15</v>
-      </c>
-      <c r="M95">
-        <v>62</v>
-      </c>
-      <c r="N95">
-        <v>0.24</v>
-      </c>
-      <c r="O95">
-        <v>0.76</v>
-      </c>
-      <c r="P95" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>2317</v>
+        <v>4263</v>
       </c>
     </row>
   </sheetData>
